--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_5_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_5_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2473348.93894513</v>
+        <v>2471654.080711236</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673443</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9527433.413785169</v>
+        <v>9527433.413785171</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>87.70616021666551</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>65.5944526828373</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776586</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856138</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>50.16678928893436</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -826,43 +826,43 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>57.16776090941369</v>
+        <v>227.5210474355602</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>241.0142888776591</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1026,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>36.50835361371226</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>93.26912801052356</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>11.86372679529251</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>222.1008216780093</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -1269,13 +1269,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>86.12049602088146</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1300,43 +1300,43 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.7795714149543</v>
+        <v>357.779571414954</v>
       </c>
       <c r="C11" t="n">
-        <v>340.3186215224812</v>
+        <v>340.318621522481</v>
       </c>
       <c r="D11" t="n">
-        <v>329.7287713721566</v>
+        <v>329.7287713721564</v>
       </c>
       <c r="E11" t="n">
-        <v>356.9760998237355</v>
+        <v>356.9760998237352</v>
       </c>
       <c r="F11" t="n">
-        <v>381.9217754931851</v>
+        <v>381.9217754931849</v>
       </c>
       <c r="G11" t="n">
-        <v>387.9966247312782</v>
+        <v>173.2624404754191</v>
       </c>
       <c r="H11" t="n">
-        <v>290.4347245022874</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>94.85220997855028</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.93634927557947</v>
+        <v>130.473187563875</v>
       </c>
       <c r="T11" t="n">
-        <v>187.8463886171958</v>
+        <v>187.8463886171955</v>
       </c>
       <c r="U11" t="n">
-        <v>226.2032352564837</v>
+        <v>226.2032352564835</v>
       </c>
       <c r="V11" t="n">
-        <v>302.7979882216086</v>
+        <v>302.7979882216084</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>324.2866984688865</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>344.7768304299425</v>
       </c>
       <c r="Y11" t="n">
-        <v>361.2836684075273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.02995793686989</v>
+        <v>22.02995793686988</v>
       </c>
       <c r="S12" t="n">
         <v>148.3099331995005</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>154.877709933411</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>142.2925508501013</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>120.4667777744049</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>127.8933879574565</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>104.904481317799</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>180.6773288969399</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>198.4837816320201</v>
       </c>
       <c r="U13" t="n">
-        <v>261.3072160754403</v>
+        <v>261.3072160754401</v>
       </c>
       <c r="V13" t="n">
-        <v>227.1833730753017</v>
+        <v>227.1833730753014</v>
       </c>
       <c r="W13" t="n">
-        <v>68.07950607180281</v>
+        <v>38.58962214378622</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.6303831035685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>357.7795714149541</v>
       </c>
       <c r="C14" t="n">
-        <v>340.3186215224812</v>
+        <v>340.3186215224811</v>
       </c>
       <c r="D14" t="n">
-        <v>329.7287713721566</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>356.9760998237355</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>329.384648128541</v>
+        <v>297.0262795019529</v>
       </c>
       <c r="G14" t="n">
-        <v>387.9966247312782</v>
+        <v>387.9966247312781</v>
       </c>
       <c r="H14" t="n">
-        <v>290.4347245022874</v>
+        <v>290.4347245022873</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.4731875638753</v>
+        <v>130.4731875638751</v>
       </c>
       <c r="T14" t="n">
-        <v>187.8463886171958</v>
+        <v>187.8463886171957</v>
       </c>
       <c r="U14" t="n">
-        <v>226.2032352564837</v>
+        <v>226.2032352564836</v>
       </c>
       <c r="V14" t="n">
-        <v>302.7979882216086</v>
+        <v>302.7979882216085</v>
       </c>
       <c r="W14" t="n">
-        <v>324.2866984688867</v>
+        <v>324.2866984688866</v>
       </c>
       <c r="X14" t="n">
-        <v>344.7768304299427</v>
+        <v>344.7768304299426</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>361.2836684075272</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>154.8777099334108</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>142.2925508501014</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>47.81403002706998</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>121.4796923980427</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>37.69285995178126</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>198.4837816320203</v>
+        <v>198.4837816320202</v>
       </c>
       <c r="U16" t="n">
-        <v>261.3072160754403</v>
+        <v>261.3072160754402</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>227.1833730753015</v>
       </c>
       <c r="W16" t="n">
-        <v>261.5687280880647</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>200.7553851405108</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.6303831035685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705748</v>
       </c>
       <c r="C17" t="n">
         <v>282.5551163781029</v>
       </c>
       <c r="D17" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277783</v>
       </c>
       <c r="E17" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793572</v>
       </c>
       <c r="F17" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488068</v>
       </c>
       <c r="G17" t="n">
         <v>330.2331195868999</v>
       </c>
       <c r="H17" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579091</v>
       </c>
       <c r="I17" t="n">
-        <v>37.08870483417215</v>
+        <v>37.0887048341722</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>72.70968241949689</v>
+        <v>72.70968241949694</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728175</v>
       </c>
       <c r="U17" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121054</v>
       </c>
       <c r="V17" t="n">
         <v>245.0344830772302</v>
       </c>
       <c r="W17" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245084</v>
       </c>
       <c r="X17" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855644</v>
       </c>
       <c r="Y17" t="n">
         <v>303.5201632631489</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.11420478903258</v>
+        <v>97.11420478903264</v>
       </c>
       <c r="C19" t="n">
-        <v>84.52904570572312</v>
+        <v>84.52904570572318</v>
       </c>
       <c r="D19" t="n">
-        <v>65.89769762530764</v>
+        <v>65.8976976253077</v>
       </c>
       <c r="E19" t="n">
-        <v>63.71618725366446</v>
+        <v>63.71618725366451</v>
       </c>
       <c r="F19" t="n">
-        <v>62.70327263002653</v>
+        <v>58.56079076600202</v>
       </c>
       <c r="G19" t="n">
-        <v>84.21824836927567</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>70.12988281307804</v>
+        <v>70.1298828130781</v>
       </c>
       <c r="I19" t="n">
-        <v>41.00730760263667</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.14097617342085</v>
+        <v>47.14097617342091</v>
       </c>
       <c r="S19" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T19" t="n">
-        <v>140.7202764876419</v>
+        <v>140.720276487642</v>
       </c>
       <c r="U19" t="n">
-        <v>203.5437109310619</v>
+        <v>203.543710931062</v>
       </c>
       <c r="V19" t="n">
-        <v>40.0518300949887</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W19" t="n">
         <v>203.8052229436863</v>
       </c>
       <c r="X19" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961325</v>
       </c>
       <c r="Y19" t="n">
         <v>135.8668779591901</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705759</v>
       </c>
       <c r="C20" t="n">
         <v>282.5551163781029</v>
       </c>
       <c r="D20" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277783</v>
       </c>
       <c r="E20" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793572</v>
       </c>
       <c r="F20" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488068</v>
       </c>
       <c r="G20" t="n">
         <v>330.2331195868999</v>
       </c>
       <c r="H20" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579091</v>
       </c>
       <c r="I20" t="n">
-        <v>37.08870483417215</v>
+        <v>37.0887048341722</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.70968241949689</v>
+        <v>72.70968241949694</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728175</v>
       </c>
       <c r="U20" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121054</v>
       </c>
       <c r="V20" t="n">
         <v>245.0344830772302</v>
       </c>
       <c r="W20" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245084</v>
       </c>
       <c r="X20" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855644</v>
       </c>
       <c r="Y20" t="n">
         <v>303.5201632631489</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.11420478903258</v>
+        <v>97.11420478903264</v>
       </c>
       <c r="C22" t="n">
-        <v>84.52904570572312</v>
+        <v>84.52904570572318</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.8976976253077</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2458470430373438</v>
+        <v>63.71618725366451</v>
       </c>
       <c r="F22" t="n">
-        <v>62.70327263002653</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>84.21824836927567</v>
+        <v>84.21824836927573</v>
       </c>
       <c r="H22" t="n">
-        <v>70.12988281307804</v>
+        <v>70.12988281307811</v>
       </c>
       <c r="I22" t="n">
-        <v>41.00730760263667</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.14097617342085</v>
+        <v>47.14097617342091</v>
       </c>
       <c r="S22" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T22" t="n">
-        <v>140.7202764876419</v>
+        <v>140.720276487642</v>
       </c>
       <c r="U22" t="n">
-        <v>203.5437109310619</v>
+        <v>203.543710931062</v>
       </c>
       <c r="V22" t="n">
         <v>169.4198679309233</v>
@@ -2302,10 +2302,10 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X22" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961325</v>
       </c>
       <c r="Y22" t="n">
-        <v>135.8668779591901</v>
+        <v>110.2094203559169</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>324.1582703488067</v>
       </c>
       <c r="G23" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H23" t="n">
         <v>232.671219357909</v>
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>21.05870549509515</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E25" t="n">
-        <v>63.71618725366446</v>
+        <v>59.88450272608901</v>
       </c>
       <c r="F25" t="n">
         <v>62.70327263002653</v>
@@ -2494,7 +2494,7 @@
         <v>70.12988281307804</v>
       </c>
       <c r="I25" t="n">
-        <v>41.00730760263667</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>300.0160662705759</v>
+        <v>300.0160662705758</v>
       </c>
       <c r="C26" t="n">
         <v>282.5551163781029</v>
       </c>
       <c r="D26" t="n">
-        <v>271.9652662277783</v>
+        <v>271.9652662277782</v>
       </c>
       <c r="E26" t="n">
-        <v>299.2125946793572</v>
+        <v>299.212594679357</v>
       </c>
       <c r="F26" t="n">
-        <v>324.1582703488068</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G26" t="n">
         <v>330.2331195868999</v>
       </c>
       <c r="H26" t="n">
-        <v>232.6712193579091</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I26" t="n">
-        <v>37.08870483417225</v>
+        <v>37.08870483417215</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>72.70968241949699</v>
+        <v>72.70968241949689</v>
       </c>
       <c r="T26" t="n">
-        <v>130.0828834728175</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U26" t="n">
-        <v>168.4397301121055</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V26" t="n">
-        <v>245.0344830772303</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W26" t="n">
-        <v>266.5231933245084</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X26" t="n">
-        <v>287.0133252855644</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y26" t="n">
-        <v>303.520163263149</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.11420478903268</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>80.38656384169971</v>
       </c>
       <c r="D28" t="n">
-        <v>65.89769762530774</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E28" t="n">
-        <v>18.87719512344937</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F28" t="n">
-        <v>62.70327263002663</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G28" t="n">
-        <v>84.21824836927577</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>70.12988281307815</v>
+        <v>70.12988281307804</v>
       </c>
       <c r="I28" t="n">
-        <v>41.00730760263677</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.14097617342095</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S28" t="n">
-        <v>122.9138237525618</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T28" t="n">
-        <v>140.720276487642</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U28" t="n">
-        <v>203.543710931062</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V28" t="n">
-        <v>169.4198679309234</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W28" t="n">
-        <v>203.8052229436864</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X28" t="n">
-        <v>142.9918799961325</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.8668779591902</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>324.1582703488067</v>
       </c>
       <c r="G29" t="n">
-        <v>330.2331195868999</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H29" t="n">
         <v>232.671219357909</v>
@@ -2950,7 +2950,7 @@
         <v>97.11420478903258</v>
       </c>
       <c r="C31" t="n">
-        <v>17.86428049981443</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D31" t="n">
         <v>65.89769762530764</v>
@@ -2959,16 +2959,16 @@
         <v>63.71618725366446</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G31" t="n">
         <v>84.21824836927567</v>
       </c>
       <c r="H31" t="n">
-        <v>70.12988281307804</v>
+        <v>70.12988281307805</v>
       </c>
       <c r="I31" t="n">
-        <v>41.00730760263667</v>
+        <v>34.55309351926285</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>47.14097617342085</v>
       </c>
       <c r="S31" t="n">
-        <v>122.9138237525617</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>140.7202764876419</v>
@@ -3029,7 +3029,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C32" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D32" t="n">
         <v>271.9652662277782</v>
@@ -3041,13 +3041,13 @@
         <v>324.1582703488067</v>
       </c>
       <c r="G32" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H32" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I32" t="n">
-        <v>37.08870483417213</v>
+        <v>37.08870483417215</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>72.70968241949687</v>
+        <v>72.70968241949689</v>
       </c>
       <c r="T32" t="n">
         <v>130.0828834728174</v>
@@ -3095,7 +3095,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y32" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.11420478903257</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C34" t="n">
-        <v>17.86428049981487</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D34" t="n">
-        <v>65.89769762530763</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E34" t="n">
-        <v>63.71618725366444</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G34" t="n">
-        <v>84.21824836927566</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H34" t="n">
-        <v>70.12988281307804</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>41.00730760263666</v>
+        <v>28.91012875320058</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.14097617342084</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>122.9138237525617</v>
@@ -3253,7 +3253,7 @@
         <v>142.9918799961324</v>
       </c>
       <c r="Y34" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.11420478903258</v>
+        <v>37.87604976617503</v>
       </c>
       <c r="C37" t="n">
         <v>84.52904570572312</v>
@@ -3439,7 +3439,7 @@
         <v>84.21824836927567</v>
       </c>
       <c r="H37" t="n">
-        <v>70.12988281307804</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>41.00730760263667</v>
@@ -3481,7 +3481,7 @@
         <v>203.5437109310619</v>
       </c>
       <c r="V37" t="n">
-        <v>40.05183009498779</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W37" t="n">
         <v>203.8052229436863</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705759</v>
       </c>
       <c r="C38" t="n">
         <v>282.5551163781029</v>
       </c>
       <c r="D38" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277783</v>
       </c>
       <c r="E38" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793571</v>
       </c>
       <c r="F38" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488068</v>
       </c>
       <c r="G38" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H38" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I38" t="n">
-        <v>37.08870483417215</v>
+        <v>37.08870483417218</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.70968241949689</v>
+        <v>72.70968241949691</v>
       </c>
       <c r="T38" t="n">
         <v>130.0828834728174</v>
       </c>
       <c r="U38" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121054</v>
       </c>
       <c r="V38" t="n">
         <v>245.0344830772302</v>
       </c>
       <c r="W38" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245079</v>
       </c>
       <c r="X38" t="n">
         <v>287.0133252855643</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.11420478903258</v>
+        <v>97.11420478903261</v>
       </c>
       <c r="C40" t="n">
-        <v>17.86428049981443</v>
+        <v>84.52904570572315</v>
       </c>
       <c r="D40" t="n">
-        <v>65.89769762530764</v>
+        <v>65.89769762530767</v>
       </c>
       <c r="E40" t="n">
-        <v>63.71618725366446</v>
+        <v>63.71618725366449</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>44.47242520980492</v>
       </c>
       <c r="G40" t="n">
-        <v>84.21824836927567</v>
+        <v>84.2182483692757</v>
       </c>
       <c r="H40" t="n">
-        <v>70.12988281307805</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>41.00730760263667</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.14097617342085</v>
+        <v>47.14097617342088</v>
       </c>
       <c r="S40" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T40" t="n">
         <v>140.7202764876419</v>
@@ -3724,7 +3724,7 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X40" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961325</v>
       </c>
       <c r="Y40" t="n">
         <v>135.8668779591901</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705759</v>
       </c>
       <c r="C41" t="n">
         <v>282.5551163781029</v>
       </c>
       <c r="D41" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277783</v>
       </c>
       <c r="E41" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793572</v>
       </c>
       <c r="F41" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488068</v>
       </c>
       <c r="G41" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H41" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579091</v>
       </c>
       <c r="I41" t="n">
-        <v>37.08870483417215</v>
+        <v>37.0887048341722</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>72.70968241949689</v>
+        <v>72.70968241949694</v>
       </c>
       <c r="T41" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728175</v>
       </c>
       <c r="U41" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121054</v>
       </c>
       <c r="V41" t="n">
         <v>245.0344830772302</v>
       </c>
       <c r="W41" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245084</v>
       </c>
       <c r="X41" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855644</v>
       </c>
       <c r="Y41" t="n">
         <v>303.5201632631489</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.11420478903258</v>
+        <v>97.11420478903264</v>
       </c>
       <c r="C43" t="n">
-        <v>21.05870549509519</v>
+        <v>17.86428049981272</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>65.8976976253077</v>
       </c>
       <c r="E43" t="n">
-        <v>63.71618725366446</v>
+        <v>63.71618725366451</v>
       </c>
       <c r="F43" t="n">
-        <v>62.70327263002653</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>84.21824836927567</v>
+        <v>84.21824836927573</v>
       </c>
       <c r="H43" t="n">
-        <v>70.12988281307805</v>
+        <v>70.12988281307811</v>
       </c>
       <c r="I43" t="n">
-        <v>41.00730760263667</v>
+        <v>41.00730760263673</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.14097617342085</v>
+        <v>47.14097617342091</v>
       </c>
       <c r="S43" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T43" t="n">
-        <v>140.7202764876419</v>
+        <v>140.720276487642</v>
       </c>
       <c r="U43" t="n">
-        <v>203.5437109310619</v>
+        <v>203.543710931062</v>
       </c>
       <c r="V43" t="n">
         <v>169.4198679309233</v>
@@ -3961,7 +3961,7 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X43" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961325</v>
       </c>
       <c r="Y43" t="n">
         <v>135.8668779591901</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0160662705759</v>
+        <v>300.0160662705758</v>
       </c>
       <c r="C44" t="n">
-        <v>282.5551163781029</v>
+        <v>282.5551163781028</v>
       </c>
       <c r="D44" t="n">
-        <v>271.9652662277783</v>
+        <v>271.9652662277782</v>
       </c>
       <c r="E44" t="n">
-        <v>299.2125946793572</v>
+        <v>299.212594679357</v>
       </c>
       <c r="F44" t="n">
-        <v>324.1582703488068</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G44" t="n">
-        <v>330.2331195868999</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H44" t="n">
-        <v>232.6712193579091</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I44" t="n">
-        <v>37.08870483417225</v>
+        <v>37.08870483417213</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.70968241949699</v>
+        <v>72.70968241949687</v>
       </c>
       <c r="T44" t="n">
-        <v>130.0828834728175</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U44" t="n">
-        <v>168.4397301121055</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V44" t="n">
-        <v>245.0344830772303</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W44" t="n">
-        <v>266.5231933245084</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X44" t="n">
-        <v>287.0133252855644</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y44" t="n">
-        <v>303.520163263149</v>
+        <v>303.5201632631488</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.11420478903268</v>
+        <v>97.11420478903257</v>
       </c>
       <c r="C46" t="n">
-        <v>84.52904570572322</v>
+        <v>84.52904570572311</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2458470430339707</v>
+        <v>65.89769762530763</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.71618725366444</v>
       </c>
       <c r="F46" t="n">
-        <v>62.70327263002663</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>84.21824836927577</v>
+        <v>58.56079076600378</v>
       </c>
       <c r="H46" t="n">
-        <v>70.12988281307815</v>
+        <v>70.12988281307803</v>
       </c>
       <c r="I46" t="n">
-        <v>41.00730760263677</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.14097617342095</v>
+        <v>47.14097617342084</v>
       </c>
       <c r="S46" t="n">
-        <v>122.9138237525618</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T46" t="n">
-        <v>140.720276487642</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U46" t="n">
-        <v>203.543710931062</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V46" t="n">
-        <v>169.4198679309234</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W46" t="n">
-        <v>203.8052229436864</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X46" t="n">
-        <v>142.9918799961325</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y46" t="n">
-        <v>135.8668779591902</v>
+        <v>135.86687795919</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.0024326625551</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C2" t="n">
-        <v>348.0024326625551</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D2" t="n">
-        <v>348.0024326625551</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E2" t="n">
-        <v>348.0024326625551</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>97.60815526925295</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142717</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142717</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729604</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021269</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
         <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057936</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
         <v>519.3476278686978</v>
@@ -4346,34 +4346,34 @@
         <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106344</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424073</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271046</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066547</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066547</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>348.0024326625551</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V2" t="n">
-        <v>348.0024326625551</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="W2" t="n">
-        <v>348.0024326625551</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X2" t="n">
-        <v>348.0024326625551</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y2" t="n">
-        <v>348.0024326625551</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106344</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887621</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156471</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.3349049058419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.0352757629984</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021269</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.8108274061901</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950721</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>712.0191193839541</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973051</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106344</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106344</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106344</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106344</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106344</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106344</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106344</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106344</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106344</v>
+        <v>238.1700046645579</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004834</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004834</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004834</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004834</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021269</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021269</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021269</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021269</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021269</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021269</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>46.59526811792567</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014785</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655841</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004834</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004834</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004834</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004834</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004834</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004834</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004834</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004834</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004834</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004834</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004834</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.5536560184564</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>104.5536560184564</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D5" t="n">
-        <v>104.5536560184564</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>104.5536560184564</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>247.340362388537</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>348.0024326625565</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>104.5536560184564</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>104.5536560184564</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.5536560184564</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>395.6002882963414</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="C6" t="n">
-        <v>395.6002882963414</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="D6" t="n">
-        <v>395.6002882963414</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E6" t="n">
-        <v>395.6002882963414</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F6" t="n">
-        <v>249.0657303232264</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,22 +4647,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4674,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>432.4774131586771</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>395.6002882963414</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>395.6002882963414</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="X6" t="n">
-        <v>395.6002882963414</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="Y6" t="n">
-        <v>395.6002882963414</v>
+        <v>305.3006591534979</v>
       </c>
     </row>
     <row r="7">
@@ -4753,7 +4753,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>742.8341567219593</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C8" t="n">
-        <v>742.8341567219593</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D8" t="n">
-        <v>742.8341567219593</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E8" t="n">
-        <v>742.8341567219593</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="W8" t="n">
-        <v>742.8341567219593</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="X8" t="n">
-        <v>742.8341567219593</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="Y8" t="n">
-        <v>742.8341567219593</v>
+        <v>41.68395448076474</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>432.4774131586771</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V9" t="n">
-        <v>197.3253049269343</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W9" t="n">
-        <v>110.334904905842</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="X9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4984,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2181.667245381356</v>
+        <v>1767.205933482773</v>
       </c>
       <c r="C11" t="n">
-        <v>1837.911062025314</v>
+        <v>1423.449750126731</v>
       </c>
       <c r="D11" t="n">
-        <v>1504.851697002934</v>
+        <v>1090.390385104351</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.269777989059</v>
+        <v>729.8084660904772</v>
       </c>
       <c r="F11" t="n">
-        <v>758.4902067838217</v>
+        <v>344.0288948852399</v>
       </c>
       <c r="G11" t="n">
-        <v>366.574424226975</v>
+        <v>169.0163287484526</v>
       </c>
       <c r="H11" t="n">
-        <v>73.20601563880588</v>
+        <v>169.0163287484526</v>
       </c>
       <c r="I11" t="n">
         <v>73.20601563880588</v>
@@ -5066,25 +5066,25 @@
         <v>3660.300781940294</v>
       </c>
       <c r="S11" t="n">
-        <v>3632.082247318496</v>
+        <v>3528.509683390925</v>
       </c>
       <c r="T11" t="n">
-        <v>3442.33842043244</v>
+        <v>3338.765856504869</v>
       </c>
       <c r="U11" t="n">
-        <v>3213.85030401175</v>
+        <v>3110.277740084178</v>
       </c>
       <c r="V11" t="n">
-        <v>2907.993750252549</v>
+        <v>2804.421186324977</v>
       </c>
       <c r="W11" t="n">
-        <v>2907.993750252549</v>
+        <v>2476.858864639234</v>
       </c>
       <c r="X11" t="n">
-        <v>2907.993750252549</v>
+        <v>2128.599439962524</v>
       </c>
       <c r="Y11" t="n">
-        <v>2543.060751861108</v>
+        <v>2128.599439962524</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J12" t="n">
-        <v>73.20601563880588</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K12" t="n">
-        <v>137.9064325948631</v>
+        <v>254.8646126176075</v>
       </c>
       <c r="L12" t="n">
-        <v>638.3586107252379</v>
+        <v>755.3167907479824</v>
       </c>
       <c r="M12" t="n">
-        <v>1274.34191943941</v>
+        <v>930.2520863496549</v>
       </c>
       <c r="N12" t="n">
-        <v>1942.864827295306</v>
+        <v>1598.774994205551</v>
       </c>
       <c r="O12" t="n">
-        <v>2488.017003181069</v>
+        <v>2143.927170091313</v>
       </c>
       <c r="P12" t="n">
-        <v>2593.268477163254</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q12" t="n">
         <v>2657.936419551312</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.0748699134135</v>
+        <v>216.9358649823425</v>
       </c>
       <c r="C13" t="n">
-        <v>324.0748699134135</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="D13" t="n">
-        <v>324.0748699134135</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="E13" t="n">
-        <v>324.0748699134135</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="F13" t="n">
-        <v>202.391255999873</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="G13" t="n">
-        <v>202.391255999873</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="H13" t="n">
         <v>73.20601563880588</v>
@@ -5197,52 +5197,52 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J13" t="n">
-        <v>79.32466191965295</v>
+        <v>79.32466191965329</v>
       </c>
       <c r="K13" t="n">
-        <v>203.3235852420084</v>
+        <v>203.323585242009</v>
       </c>
       <c r="L13" t="n">
-        <v>410.6171321895911</v>
+        <v>410.6171321895919</v>
       </c>
       <c r="M13" t="n">
-        <v>638.2252920475062</v>
+        <v>638.2252920475072</v>
       </c>
       <c r="N13" t="n">
-        <v>866.4434782183682</v>
+        <v>866.4434782183696</v>
       </c>
       <c r="O13" t="n">
-        <v>1063.109528897734</v>
+        <v>1063.109528897736</v>
       </c>
       <c r="P13" t="n">
-        <v>1211.436193392007</v>
+        <v>1211.436193392009</v>
       </c>
       <c r="Q13" t="n">
-        <v>1238.295262094751</v>
+        <v>1238.295262094753</v>
       </c>
       <c r="R13" t="n">
-        <v>1238.295262094751</v>
+        <v>1132.331139551522</v>
       </c>
       <c r="S13" t="n">
-        <v>1238.295262094751</v>
+        <v>949.8287871303706</v>
       </c>
       <c r="T13" t="n">
-        <v>1238.295262094751</v>
+        <v>749.3401188151988</v>
       </c>
       <c r="U13" t="n">
-        <v>974.348579190266</v>
+        <v>485.3934359107139</v>
       </c>
       <c r="V13" t="n">
-        <v>744.8704245687492</v>
+        <v>255.9152812891974</v>
       </c>
       <c r="W13" t="n">
-        <v>676.1032467184433</v>
+        <v>216.9358649823425</v>
       </c>
       <c r="X13" t="n">
-        <v>676.1032467184433</v>
+        <v>216.9358649823425</v>
       </c>
       <c r="Y13" t="n">
-        <v>480.5170011592832</v>
+        <v>216.9358649823425</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2128.599439962523</v>
+        <v>1402.272935091331</v>
       </c>
       <c r="C14" t="n">
-        <v>1784.843256606481</v>
+        <v>1058.516751735289</v>
       </c>
       <c r="D14" t="n">
-        <v>1451.783891584101</v>
+        <v>1058.516751735289</v>
       </c>
       <c r="E14" t="n">
-        <v>1091.201972570227</v>
+        <v>1058.516751735289</v>
       </c>
       <c r="F14" t="n">
-        <v>758.4902067838217</v>
+        <v>758.4902067838213</v>
       </c>
       <c r="G14" t="n">
-        <v>366.574424226975</v>
+        <v>366.5744242269748</v>
       </c>
       <c r="H14" t="n">
         <v>73.20601563880588</v>
@@ -5276,10 +5276,10 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J14" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K14" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223502</v>
       </c>
       <c r="L14" t="n">
         <v>1205.679240092235</v>
@@ -5306,7 +5306,7 @@
         <v>3528.509683390925</v>
       </c>
       <c r="T14" t="n">
-        <v>3338.765856504868</v>
+        <v>3338.765856504869</v>
       </c>
       <c r="U14" t="n">
         <v>3110.277740084178</v>
@@ -5318,10 +5318,10 @@
         <v>2476.858864639233</v>
       </c>
       <c r="X14" t="n">
-        <v>2128.599439962523</v>
+        <v>2128.599439962524</v>
       </c>
       <c r="Y14" t="n">
-        <v>2128.599439962523</v>
+        <v>1763.666441571082</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J15" t="n">
-        <v>73.20601563880588</v>
+        <v>183.3318001604858</v>
       </c>
       <c r="K15" t="n">
-        <v>137.9064325948631</v>
+        <v>509.8528017589958</v>
       </c>
       <c r="L15" t="n">
-        <v>638.3586107252379</v>
+        <v>1010.304979889371</v>
       </c>
       <c r="M15" t="n">
-        <v>1274.34191943941</v>
+        <v>1185.240275491043</v>
       </c>
       <c r="N15" t="n">
-        <v>1942.864827295306</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O15" t="n">
-        <v>2488.017003181069</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P15" t="n">
-        <v>2593.268477163254</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.936419551312</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>111.2796115496959</v>
+        <v>387.9396250077092</v>
       </c>
       <c r="C16" t="n">
-        <v>111.2796115496959</v>
+        <v>244.2097756641724</v>
       </c>
       <c r="D16" t="n">
-        <v>111.2796115496959</v>
+        <v>195.9127756368288</v>
       </c>
       <c r="E16" t="n">
-        <v>111.2796115496959</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="F16" t="n">
-        <v>111.2796115496959</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="G16" t="n">
-        <v>111.2796115496959</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="H16" t="n">
-        <v>111.2796115496959</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I16" t="n">
         <v>73.20601563880588</v>
       </c>
       <c r="J16" t="n">
-        <v>79.32466191965295</v>
+        <v>79.32466191965307</v>
       </c>
       <c r="K16" t="n">
-        <v>203.3235852420084</v>
+        <v>203.3235852420087</v>
       </c>
       <c r="L16" t="n">
-        <v>410.6171321895911</v>
+        <v>410.6171321895915</v>
       </c>
       <c r="M16" t="n">
-        <v>638.2252920475062</v>
+        <v>638.2252920475069</v>
       </c>
       <c r="N16" t="n">
-        <v>866.4434782183682</v>
+        <v>866.4434782183691</v>
       </c>
       <c r="O16" t="n">
-        <v>1063.109528897734</v>
+        <v>1063.109528897735</v>
       </c>
       <c r="P16" t="n">
-        <v>1211.436193392007</v>
+        <v>1211.436193392008</v>
       </c>
       <c r="Q16" t="n">
-        <v>1238.295262094751</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="R16" t="n">
-        <v>1238.295262094751</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="S16" t="n">
-        <v>1238.295262094751</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="T16" t="n">
-        <v>1037.806593779579</v>
+        <v>1037.80659377958</v>
       </c>
       <c r="U16" t="n">
-        <v>773.8599108750939</v>
+        <v>773.8599108750955</v>
       </c>
       <c r="V16" t="n">
-        <v>773.8599108750939</v>
+        <v>544.3817562535787</v>
       </c>
       <c r="W16" t="n">
-        <v>509.6490744225032</v>
+        <v>544.3817562535787</v>
       </c>
       <c r="X16" t="n">
-        <v>306.8658571088559</v>
+        <v>544.3817562535787</v>
       </c>
       <c r="Y16" t="n">
-        <v>111.2796115496959</v>
+        <v>544.3817562535787</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>679.259595213534</v>
       </c>
       <c r="G17" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499991</v>
       </c>
       <c r="H17" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551415</v>
       </c>
       <c r="I17" t="n">
         <v>73.20601563880588</v>
@@ -5516,7 +5516,7 @@
         <v>258.9898176069164</v>
       </c>
       <c r="K17" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L17" t="n">
         <v>1205.679240092235</v>
@@ -5543,22 +5543,22 @@
         <v>3586.856658284236</v>
       </c>
       <c r="T17" t="n">
-        <v>3455.459806291492</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U17" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V17" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W17" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X17" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y17" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>73.20601563880588</v>
       </c>
       <c r="K18" t="n">
-        <v>137.9064325948631</v>
+        <v>399.7270172373159</v>
       </c>
       <c r="L18" t="n">
-        <v>638.3586107252379</v>
+        <v>900.1791953676907</v>
       </c>
       <c r="M18" t="n">
-        <v>1274.34191943941</v>
+        <v>1075.114490969363</v>
       </c>
       <c r="N18" t="n">
-        <v>1942.864827295306</v>
+        <v>1743.637398825259</v>
       </c>
       <c r="O18" t="n">
-        <v>2488.017003181069</v>
+        <v>2216.96817800723</v>
       </c>
       <c r="P18" t="n">
         <v>2637.497792942953</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>550.1773711940706</v>
+        <v>419.5025855012054</v>
       </c>
       <c r="C19" t="n">
-        <v>464.7944967438452</v>
+        <v>334.11971105098</v>
       </c>
       <c r="D19" t="n">
-        <v>398.2311658091911</v>
+        <v>267.5563801163257</v>
       </c>
       <c r="E19" t="n">
-        <v>333.8713807044795</v>
+        <v>203.1965950116141</v>
       </c>
       <c r="F19" t="n">
-        <v>270.5347416842507</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="G19" t="n">
-        <v>185.4658039375076</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="H19" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I19" t="n">
         <v>73.20601563880588</v>
@@ -5674,13 +5674,13 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K19" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278774</v>
       </c>
       <c r="L19" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683946</v>
       </c>
       <c r="M19" t="n">
-        <v>866.9687724192445</v>
+        <v>866.9687724192443</v>
       </c>
       <c r="N19" t="n">
         <v>1152.372828683041</v>
@@ -5692,31 +5692,31 @@
         <v>1611.737284042549</v>
       </c>
       <c r="Q19" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838227</v>
       </c>
       <c r="R19" t="n">
-        <v>1648.165075188308</v>
+        <v>1648.165075188307</v>
       </c>
       <c r="S19" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660467</v>
       </c>
       <c r="T19" t="n">
         <v>1381.868004238607</v>
       </c>
       <c r="U19" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V19" t="n">
-        <v>1135.811902192092</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W19" t="n">
-        <v>929.9480406328134</v>
+        <v>799.2732549399484</v>
       </c>
       <c r="X19" t="n">
-        <v>785.5117982124776</v>
+        <v>654.8370125196125</v>
       </c>
       <c r="Y19" t="n">
-        <v>648.2725275466288</v>
+        <v>517.5977418537636</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F20" t="n">
-        <v>679.2595952135342</v>
+        <v>679.2595952135343</v>
       </c>
       <c r="G20" t="n">
         <v>345.690787549999</v>
       </c>
       <c r="H20" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551415</v>
       </c>
       <c r="I20" t="n">
         <v>73.20601563880588</v>
       </c>
       <c r="J20" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K20" t="n">
-        <v>658.1763815223499</v>
+        <v>658.17638152235</v>
       </c>
       <c r="L20" t="n">
         <v>1205.679240092235</v>
@@ -5780,7 +5780,7 @@
         <v>3586.856658284236</v>
       </c>
       <c r="T20" t="n">
-        <v>3455.459806291492</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U20" t="n">
         <v>3285.318664764113</v>
@@ -5795,7 +5795,7 @@
         <v>2478.681289322393</v>
       </c>
       <c r="Y20" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824263</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J21" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="K21" t="n">
-        <v>509.852801758996</v>
+        <v>137.9064325948631</v>
       </c>
       <c r="L21" t="n">
-        <v>1010.304979889371</v>
+        <v>271.2266688748133</v>
       </c>
       <c r="M21" t="n">
-        <v>1185.240275491043</v>
+        <v>907.2099775889857</v>
       </c>
       <c r="N21" t="n">
-        <v>1853.763183346939</v>
+        <v>1575.732885444882</v>
       </c>
       <c r="O21" t="n">
-        <v>2008.991663148739</v>
+        <v>2120.885061330644</v>
       </c>
       <c r="P21" t="n">
-        <v>2429.521278084463</v>
+        <v>2541.414676266368</v>
       </c>
       <c r="Q21" t="n">
         <v>2657.936419551312</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>419.5025855012069</v>
+        <v>445.419209342896</v>
       </c>
       <c r="C22" t="n">
-        <v>334.1197110509815</v>
+        <v>360.0363348926705</v>
       </c>
       <c r="D22" t="n">
-        <v>334.1197110509815</v>
+        <v>293.4730039580163</v>
       </c>
       <c r="E22" t="n">
-        <v>333.8713807044791</v>
+        <v>229.1132188533047</v>
       </c>
       <c r="F22" t="n">
-        <v>270.5347416842503</v>
+        <v>229.1132188533047</v>
       </c>
       <c r="G22" t="n">
-        <v>185.4658039375076</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="H22" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I22" t="n">
         <v>73.20601563880588</v>
@@ -5911,13 +5911,13 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K22" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278775</v>
       </c>
       <c r="L22" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683947</v>
       </c>
       <c r="M22" t="n">
-        <v>866.9687724192445</v>
+        <v>866.9687724192443</v>
       </c>
       <c r="N22" t="n">
         <v>1152.372828683041</v>
@@ -5935,25 +5935,25 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S22" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660467</v>
       </c>
       <c r="T22" t="n">
         <v>1381.868004238607</v>
       </c>
       <c r="U22" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V22" t="n">
-        <v>1005.137116499229</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W22" t="n">
-        <v>799.2732549399494</v>
+        <v>799.2732549399484</v>
       </c>
       <c r="X22" t="n">
-        <v>654.8370125196136</v>
+        <v>654.8370125196125</v>
       </c>
       <c r="Y22" t="n">
-        <v>517.5977418537651</v>
+        <v>543.5143656954542</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>1869.048734237822</v>
       </c>
       <c r="C23" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D23" t="n">
         <v>1308.927135646023</v>
@@ -5975,22 +5975,22 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F23" t="n">
-        <v>679.2595952135341</v>
+        <v>679.259595213534</v>
       </c>
       <c r="G23" t="n">
-        <v>345.690787549999</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H23" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551411</v>
       </c>
       <c r="I23" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J23" t="n">
         <v>258.9898176069164</v>
       </c>
       <c r="K23" t="n">
-        <v>658.1763815223501</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L23" t="n">
         <v>1205.679240092235</v>
@@ -5999,19 +5999,19 @@
         <v>1831.488208231172</v>
       </c>
       <c r="N23" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191917</v>
       </c>
       <c r="O23" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219485</v>
       </c>
       <c r="P23" t="n">
         <v>3418.758763931393</v>
       </c>
       <c r="Q23" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="R23" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="S23" t="n">
         <v>3586.856658284236</v>
@@ -6026,7 +6026,7 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W23" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X23" t="n">
         <v>2478.681289322392</v>
@@ -6063,22 +6063,22 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I24" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J24" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="K24" t="n">
-        <v>516.6851972600602</v>
+        <v>137.9064325948631</v>
       </c>
       <c r="L24" t="n">
-        <v>1017.137375390435</v>
+        <v>638.3586107252379</v>
       </c>
       <c r="M24" t="n">
-        <v>1653.120684104607</v>
+        <v>813.2939063269102</v>
       </c>
       <c r="N24" t="n">
-        <v>1853.763183346939</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O24" t="n">
         <v>2008.991663148739</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>419.5025855012064</v>
+        <v>419.5025855012067</v>
       </c>
       <c r="C25" t="n">
-        <v>419.5025855012064</v>
+        <v>419.5025855012067</v>
       </c>
       <c r="D25" t="n">
-        <v>398.2311658091911</v>
+        <v>352.9392545665526</v>
       </c>
       <c r="E25" t="n">
-        <v>333.8713807044795</v>
+        <v>292.4498578735333</v>
       </c>
       <c r="F25" t="n">
-        <v>270.5347416842507</v>
+        <v>229.1132188533045</v>
       </c>
       <c r="G25" t="n">
-        <v>185.4658039375076</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="H25" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I25" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J25" t="n">
         <v>136.5105320125876</v>
       </c>
       <c r="K25" t="n">
-        <v>317.6953254278774</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L25" t="n">
-        <v>582.1747424683947</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M25" t="n">
-        <v>866.9687724192445</v>
+        <v>866.9687724192446</v>
       </c>
       <c r="N25" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O25" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P25" t="n">
         <v>1611.737284042549</v>
@@ -6178,19 +6178,19 @@
         <v>1381.868004238607</v>
       </c>
       <c r="U25" t="n">
-        <v>1176.268296227433</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V25" t="n">
         <v>1005.137116499228</v>
       </c>
       <c r="W25" t="n">
-        <v>799.273254939949</v>
+        <v>799.2732549399492</v>
       </c>
       <c r="X25" t="n">
-        <v>654.8370125196132</v>
+        <v>654.8370125196134</v>
       </c>
       <c r="Y25" t="n">
-        <v>517.5977418537645</v>
+        <v>517.5977418537649</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237823</v>
       </c>
       <c r="C26" t="n">
         <v>1583.639525775092</v>
@@ -6212,55 +6212,55 @@
         <v>1006.692191525461</v>
       </c>
       <c r="F26" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135346</v>
       </c>
       <c r="G26" t="n">
-        <v>345.690787549999</v>
+        <v>345.6907875499993</v>
       </c>
       <c r="H26" t="n">
-        <v>110.6693538551415</v>
+        <v>110.6693538551417</v>
       </c>
       <c r="I26" t="n">
-        <v>73.20601563880591</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J26" t="n">
-        <v>258.9898176069181</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K26" t="n">
-        <v>658.1763815223518</v>
+        <v>658.1763815223501</v>
       </c>
       <c r="L26" t="n">
-        <v>1205.679240092236</v>
+        <v>1205.679240092235</v>
       </c>
       <c r="M26" t="n">
-        <v>1831.488208231173</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N26" t="n">
-        <v>2452.791422191918</v>
+        <v>2452.791422191917</v>
       </c>
       <c r="O26" t="n">
-        <v>2994.282791219486</v>
+        <v>2994.282791219485</v>
       </c>
       <c r="P26" t="n">
-        <v>3418.758763931395</v>
+        <v>3418.758763931393</v>
       </c>
       <c r="Q26" t="n">
-        <v>3660.300781940296</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="R26" t="n">
-        <v>3660.300781940296</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="S26" t="n">
-        <v>3586.856658284238</v>
+        <v>3586.856658284237</v>
       </c>
       <c r="T26" t="n">
-        <v>3455.459806291493</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U26" t="n">
-        <v>3285.318664764114</v>
+        <v>3285.318664764113</v>
       </c>
       <c r="V26" t="n">
-        <v>3037.809085898225</v>
+        <v>3037.809085898224</v>
       </c>
       <c r="W26" t="n">
         <v>2768.593739105791</v>
@@ -6291,37 +6291,37 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2965326142068</v>
+        <v>358.2965326142067</v>
       </c>
       <c r="G27" t="n">
-        <v>220.836764461843</v>
+        <v>220.8367644618429</v>
       </c>
       <c r="H27" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I27" t="n">
-        <v>73.20601563880591</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J27" t="n">
         <v>190.1641956615503</v>
       </c>
       <c r="K27" t="n">
-        <v>516.6851972600602</v>
+        <v>254.8646126176075</v>
       </c>
       <c r="L27" t="n">
-        <v>757.2334816353614</v>
+        <v>388.1848488975577</v>
       </c>
       <c r="M27" t="n">
-        <v>1393.216790349534</v>
+        <v>1024.16815761173</v>
       </c>
       <c r="N27" t="n">
-        <v>2061.73969820543</v>
+        <v>1692.691065467626</v>
       </c>
       <c r="O27" t="n">
-        <v>2216.96817800723</v>
+        <v>2237.843241353388</v>
       </c>
       <c r="P27" t="n">
-        <v>2637.497792942953</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q27" t="n">
         <v>2657.936419551312</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>419.5025855012047</v>
+        <v>419.5025855012063</v>
       </c>
       <c r="C28" t="n">
-        <v>419.5025855012047</v>
+        <v>338.3040361661561</v>
       </c>
       <c r="D28" t="n">
-        <v>352.9392545665505</v>
+        <v>271.7407052315019</v>
       </c>
       <c r="E28" t="n">
-        <v>333.8713807044804</v>
+        <v>207.3809201267903</v>
       </c>
       <c r="F28" t="n">
-        <v>270.5347416842515</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="G28" t="n">
-        <v>185.4658039375083</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="H28" t="n">
-        <v>114.6275384697522</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I28" t="n">
-        <v>73.20601563880591</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5105320125875</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K28" t="n">
-        <v>317.6953254278775</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L28" t="n">
-        <v>582.1747424683947</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M28" t="n">
-        <v>866.9687724192443</v>
+        <v>866.9687724192445</v>
       </c>
       <c r="N28" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O28" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P28" t="n">
-        <v>1611.737284042548</v>
+        <v>1611.737284042549</v>
       </c>
       <c r="Q28" t="n">
-        <v>1695.782222838227</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R28" t="n">
-        <v>1648.165075188307</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S28" t="n">
-        <v>1524.009697660467</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T28" t="n">
-        <v>1381.868004238606</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U28" t="n">
-        <v>1176.268296227432</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V28" t="n">
-        <v>1005.137116499227</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W28" t="n">
-        <v>799.2732549399474</v>
+        <v>799.2732549399492</v>
       </c>
       <c r="X28" t="n">
-        <v>654.8370125196117</v>
+        <v>654.8370125196134</v>
       </c>
       <c r="Y28" t="n">
-        <v>517.5977418537631</v>
+        <v>517.5977418537645</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1869.048734237823</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C29" t="n">
-        <v>1583.639525775093</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D29" t="n">
-        <v>1308.927135646024</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E29" t="n">
-        <v>1006.692191525461</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F29" t="n">
-        <v>679.259595213535</v>
+        <v>679.2595952135343</v>
       </c>
       <c r="G29" t="n">
-        <v>345.6907875499996</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H29" t="n">
         <v>110.6693538551414</v>
@@ -6470,13 +6470,13 @@
         <v>1205.679240092235</v>
       </c>
       <c r="M29" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N29" t="n">
-        <v>2452.791422191917</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O29" t="n">
-        <v>2994.282791219485</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P29" t="n">
         <v>3418.758763931393</v>
@@ -6488,7 +6488,7 @@
         <v>3660.300781940294</v>
       </c>
       <c r="S29" t="n">
-        <v>3586.856658284236</v>
+        <v>3586.856658284237</v>
       </c>
       <c r="T29" t="n">
         <v>3455.459806291492</v>
@@ -6543,10 +6543,10 @@
         <v>190.1641956615503</v>
       </c>
       <c r="K30" t="n">
-        <v>516.6851972600602</v>
+        <v>254.8646126176075</v>
       </c>
       <c r="L30" t="n">
-        <v>1017.137375390435</v>
+        <v>633.8822212930265</v>
       </c>
       <c r="M30" t="n">
         <v>1269.865530007199</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>419.5025855012068</v>
+        <v>543.657963029047</v>
       </c>
       <c r="C31" t="n">
-        <v>401.4578577236165</v>
+        <v>458.2750885788215</v>
       </c>
       <c r="D31" t="n">
-        <v>334.8945267889623</v>
+        <v>391.7117576441673</v>
       </c>
       <c r="E31" t="n">
-        <v>270.5347416842507</v>
+        <v>327.3519725394553</v>
       </c>
       <c r="F31" t="n">
-        <v>270.5347416842507</v>
+        <v>264.0153335192265</v>
       </c>
       <c r="G31" t="n">
-        <v>185.4658039375076</v>
+        <v>178.9463957724834</v>
       </c>
       <c r="H31" t="n">
-        <v>114.627538469752</v>
+        <v>108.108130304728</v>
       </c>
       <c r="I31" t="n">
         <v>73.20601563880588</v>
@@ -6628,7 +6628,7 @@
         <v>582.1747424683949</v>
       </c>
       <c r="M31" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N31" t="n">
         <v>1152.372828683041</v>
@@ -6646,25 +6646,25 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S31" t="n">
-        <v>1524.009697660468</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="T31" t="n">
-        <v>1381.868004238607</v>
+        <v>1506.023381766448</v>
       </c>
       <c r="U31" t="n">
-        <v>1176.268296227434</v>
+        <v>1300.423673755274</v>
       </c>
       <c r="V31" t="n">
-        <v>1005.137116499229</v>
+        <v>1129.292494027069</v>
       </c>
       <c r="W31" t="n">
-        <v>799.2732549399494</v>
+        <v>923.4286324677895</v>
       </c>
       <c r="X31" t="n">
-        <v>654.8370125196136</v>
+        <v>778.9923900474537</v>
       </c>
       <c r="Y31" t="n">
-        <v>517.597741853765</v>
+        <v>641.7531193816052</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C32" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D32" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E32" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F32" t="n">
-        <v>679.2595952135339</v>
+        <v>679.259595213534</v>
       </c>
       <c r="G32" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H32" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551413</v>
       </c>
       <c r="I32" t="n">
         <v>73.20601563880588</v>
       </c>
       <c r="J32" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K32" t="n">
-        <v>658.1763815223501</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L32" t="n">
         <v>1205.679240092235</v>
@@ -6728,22 +6728,22 @@
         <v>3586.856658284236</v>
       </c>
       <c r="T32" t="n">
-        <v>3455.459806291492</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U32" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764113</v>
       </c>
       <c r="V32" t="n">
         <v>3037.809085898223</v>
       </c>
       <c r="W32" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X32" t="n">
         <v>2478.681289322392</v>
       </c>
       <c r="Y32" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="33">
@@ -6780,16 +6780,16 @@
         <v>190.1641956615503</v>
       </c>
       <c r="K33" t="n">
-        <v>254.8646126176075</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L33" t="n">
-        <v>388.1848488975577</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M33" t="n">
-        <v>1024.16815761173</v>
+        <v>1653.120684104607</v>
       </c>
       <c r="N33" t="n">
-        <v>1463.839487262977</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O33" t="n">
         <v>2008.991663148739</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>419.5025855012072</v>
+        <v>467.1197331511271</v>
       </c>
       <c r="C34" t="n">
-        <v>401.4578577236164</v>
+        <v>381.7368587009017</v>
       </c>
       <c r="D34" t="n">
-        <v>334.8945267889623</v>
+        <v>315.1735277662474</v>
       </c>
       <c r="E34" t="n">
-        <v>270.5347416842507</v>
+        <v>250.8137426615361</v>
       </c>
       <c r="F34" t="n">
-        <v>270.5347416842507</v>
+        <v>187.4771036413074</v>
       </c>
       <c r="G34" t="n">
-        <v>185.4658039375076</v>
+        <v>102.408165894564</v>
       </c>
       <c r="H34" t="n">
-        <v>114.627538469752</v>
+        <v>102.408165894564</v>
       </c>
       <c r="I34" t="n">
         <v>73.20601563880588</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K34" t="n">
         <v>317.6953254278777</v>
@@ -6868,7 +6868,7 @@
         <v>866.9687724192446</v>
       </c>
       <c r="N34" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O34" t="n">
         <v>1406.224749455342</v>
@@ -6880,28 +6880,28 @@
         <v>1695.782222838228</v>
       </c>
       <c r="R34" t="n">
-        <v>1648.165075188308</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="S34" t="n">
-        <v>1524.009697660468</v>
+        <v>1571.626845310388</v>
       </c>
       <c r="T34" t="n">
-        <v>1381.868004238608</v>
+        <v>1429.485151888528</v>
       </c>
       <c r="U34" t="n">
-        <v>1176.268296227434</v>
+        <v>1223.885443877354</v>
       </c>
       <c r="V34" t="n">
-        <v>1005.137116499229</v>
+        <v>1052.754264149149</v>
       </c>
       <c r="W34" t="n">
-        <v>799.2732549399494</v>
+        <v>846.8904025898696</v>
       </c>
       <c r="X34" t="n">
-        <v>654.8370125196136</v>
+        <v>702.4541601695339</v>
       </c>
       <c r="Y34" t="n">
-        <v>517.5977418537653</v>
+        <v>565.2148895036853</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F35" t="n">
-        <v>679.2595952135346</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G35" t="n">
-        <v>345.6907875499993</v>
+        <v>345.690787549999</v>
       </c>
       <c r="H35" t="n">
-        <v>110.6693538551417</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I35" t="n">
         <v>73.20601563880588</v>
@@ -6938,19 +6938,19 @@
         <v>258.9898176069164</v>
       </c>
       <c r="K35" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L35" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M35" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N35" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191917</v>
       </c>
       <c r="O35" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219485</v>
       </c>
       <c r="P35" t="n">
         <v>3418.758763931393</v>
@@ -6968,16 +6968,16 @@
         <v>3455.459806291492</v>
       </c>
       <c r="U35" t="n">
-        <v>3285.318664764113</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V35" t="n">
-        <v>3037.809085898224</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W35" t="n">
         <v>2768.593739105791</v>
       </c>
       <c r="X35" t="n">
-        <v>2478.681289322393</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y35" t="n">
         <v>2172.095265824262</v>
@@ -7017,19 +7017,19 @@
         <v>190.1641956615503</v>
       </c>
       <c r="K36" t="n">
-        <v>448.7081841161896</v>
+        <v>254.8646126176075</v>
       </c>
       <c r="L36" t="n">
-        <v>949.1603622465643</v>
+        <v>549.2569667768707</v>
       </c>
       <c r="M36" t="n">
-        <v>1585.143670960737</v>
+        <v>1185.240275491043</v>
       </c>
       <c r="N36" t="n">
-        <v>1779.117628216515</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O36" t="n">
-        <v>2324.269804102277</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P36" t="n">
         <v>2429.521278084463</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>550.1773711940706</v>
+        <v>479.3391057263152</v>
       </c>
       <c r="C37" t="n">
-        <v>464.7944967438452</v>
+        <v>393.9562312760899</v>
       </c>
       <c r="D37" t="n">
-        <v>398.2311658091911</v>
+        <v>327.3929003414356</v>
       </c>
       <c r="E37" t="n">
-        <v>333.8713807044795</v>
+        <v>263.033115236724</v>
       </c>
       <c r="F37" t="n">
-        <v>270.5347416842507</v>
+        <v>199.6964762164952</v>
       </c>
       <c r="G37" t="n">
-        <v>185.4658039375076</v>
+        <v>114.627538469752</v>
       </c>
       <c r="H37" t="n">
         <v>114.627538469752</v>
@@ -7129,16 +7129,16 @@
         <v>1176.268296227434</v>
       </c>
       <c r="V37" t="n">
-        <v>1135.811902192092</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W37" t="n">
-        <v>929.9480406328134</v>
+        <v>799.2732549399491</v>
       </c>
       <c r="X37" t="n">
-        <v>785.5117982124776</v>
+        <v>654.8370125196133</v>
       </c>
       <c r="Y37" t="n">
-        <v>648.2725275466288</v>
+        <v>517.5977418537647</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F38" t="n">
-        <v>679.2595952135339</v>
+        <v>679.2595952135343</v>
       </c>
       <c r="G38" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499991</v>
       </c>
       <c r="H38" t="n">
         <v>110.6693538551414</v>
@@ -7172,7 +7172,7 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J38" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K38" t="n">
         <v>658.17638152235</v>
@@ -7214,10 +7214,10 @@
         <v>2768.593739105791</v>
       </c>
       <c r="X38" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322393</v>
       </c>
       <c r="Y38" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824263</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>190.1641956615503</v>
       </c>
       <c r="K39" t="n">
-        <v>516.6851972600602</v>
+        <v>341.2911753664962</v>
       </c>
       <c r="L39" t="n">
-        <v>1017.137375390435</v>
+        <v>474.6114116464464</v>
       </c>
       <c r="M39" t="n">
-        <v>1269.865530007199</v>
+        <v>1110.594720360619</v>
       </c>
       <c r="N39" t="n">
-        <v>1463.839487262977</v>
+        <v>1779.117628216515</v>
       </c>
       <c r="O39" t="n">
-        <v>2008.991663148739</v>
+        <v>2324.269804102277</v>
       </c>
       <c r="P39" t="n">
         <v>2429.521278084463</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>419.5025855012068</v>
+        <v>419.5025855012059</v>
       </c>
       <c r="C40" t="n">
-        <v>401.4578577236165</v>
+        <v>334.1197110509805</v>
       </c>
       <c r="D40" t="n">
-        <v>334.8945267889623</v>
+        <v>267.5563801163262</v>
       </c>
       <c r="E40" t="n">
-        <v>270.5347416842508</v>
+        <v>203.1965950116146</v>
       </c>
       <c r="F40" t="n">
-        <v>270.5347416842508</v>
+        <v>158.274953385549</v>
       </c>
       <c r="G40" t="n">
-        <v>185.4658039375076</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="H40" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I40" t="n">
         <v>73.20601563880588</v>
@@ -7333,10 +7333,10 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K40" t="n">
-        <v>317.6953254278774</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L40" t="n">
-        <v>582.1747424683947</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M40" t="n">
         <v>866.9687724192445</v>
@@ -7363,19 +7363,19 @@
         <v>1381.868004238607</v>
       </c>
       <c r="U40" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V40" t="n">
         <v>1005.137116499228</v>
       </c>
       <c r="W40" t="n">
-        <v>799.2732549399492</v>
+        <v>799.2732549399491</v>
       </c>
       <c r="X40" t="n">
-        <v>654.8370125196134</v>
+        <v>654.8370125196133</v>
       </c>
       <c r="Y40" t="n">
-        <v>517.597741853765</v>
+        <v>517.5977418537641</v>
       </c>
     </row>
     <row r="41">
@@ -7388,22 +7388,22 @@
         <v>1869.048734237822</v>
       </c>
       <c r="C41" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D41" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E41" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F41" t="n">
-        <v>679.2595952135334</v>
+        <v>679.2595952135341</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6907875499983</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H41" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551415</v>
       </c>
       <c r="I41" t="n">
         <v>73.20601563880588</v>
@@ -7439,22 +7439,22 @@
         <v>3586.856658284236</v>
       </c>
       <c r="T41" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U41" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764113</v>
       </c>
       <c r="V41" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898224</v>
       </c>
       <c r="W41" t="n">
         <v>2768.593739105791</v>
       </c>
       <c r="X41" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322393</v>
       </c>
       <c r="Y41" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824263</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J42" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="K42" t="n">
-        <v>516.6851972600602</v>
+        <v>137.9064325948631</v>
       </c>
       <c r="L42" t="n">
-        <v>864.5351077304085</v>
+        <v>638.3586107252379</v>
       </c>
       <c r="M42" t="n">
-        <v>1500.518416444581</v>
+        <v>1274.34191943941</v>
       </c>
       <c r="N42" t="n">
-        <v>2169.041324300477</v>
+        <v>1942.864827295306</v>
       </c>
       <c r="O42" t="n">
-        <v>2324.269804102277</v>
+        <v>2216.96817800723</v>
       </c>
       <c r="P42" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q42" t="n">
         <v>2657.936419551312</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>419.5025855012065</v>
+        <v>419.5025855012054</v>
       </c>
       <c r="C43" t="n">
-        <v>398.2311658091912</v>
+        <v>401.4578577236168</v>
       </c>
       <c r="D43" t="n">
-        <v>398.2311658091912</v>
+        <v>334.8945267889625</v>
       </c>
       <c r="E43" t="n">
-        <v>333.8713807044796</v>
+        <v>270.5347416842509</v>
       </c>
       <c r="F43" t="n">
-        <v>270.5347416842508</v>
+        <v>270.5347416842509</v>
       </c>
       <c r="G43" t="n">
-        <v>185.4658039375076</v>
+        <v>185.4658039375077</v>
       </c>
       <c r="H43" t="n">
-        <v>114.627538469752</v>
+        <v>114.6275384697521</v>
       </c>
       <c r="I43" t="n">
         <v>73.20601563880588</v>
@@ -7573,10 +7573,10 @@
         <v>317.6953254278776</v>
       </c>
       <c r="L43" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683948</v>
       </c>
       <c r="M43" t="n">
-        <v>866.9687724192445</v>
+        <v>866.9687724192443</v>
       </c>
       <c r="N43" t="n">
         <v>1152.372828683041</v>
@@ -7594,7 +7594,7 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S43" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660467</v>
       </c>
       <c r="T43" t="n">
         <v>1381.868004238607</v>
@@ -7606,13 +7606,13 @@
         <v>1005.137116499228</v>
       </c>
       <c r="W43" t="n">
-        <v>799.273254939949</v>
+        <v>799.2732549399484</v>
       </c>
       <c r="X43" t="n">
-        <v>654.8370125196132</v>
+        <v>654.8370125196125</v>
       </c>
       <c r="Y43" t="n">
-        <v>517.5977418537647</v>
+        <v>517.5977418537636</v>
       </c>
     </row>
     <row r="44">
@@ -7631,25 +7631,25 @@
         <v>1308.927135646022</v>
       </c>
       <c r="E44" t="n">
-        <v>1006.692191525459</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F44" t="n">
-        <v>679.2595952135332</v>
+        <v>679.2595952135341</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6907875499978</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H44" t="n">
-        <v>110.6693538551415</v>
+        <v>110.6693538551413</v>
       </c>
       <c r="I44" t="n">
         <v>73.20601563880588</v>
       </c>
       <c r="J44" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K44" t="n">
-        <v>658.1763815223501</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L44" t="n">
         <v>1205.679240092235</v>
@@ -7679,13 +7679,13 @@
         <v>3455.459806291492</v>
       </c>
       <c r="U44" t="n">
-        <v>3285.318664764113</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V44" t="n">
-        <v>3037.809085898224</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W44" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X44" t="n">
         <v>2478.681289322392</v>
@@ -7728,22 +7728,22 @@
         <v>190.1641956615503</v>
       </c>
       <c r="K45" t="n">
-        <v>516.6851972600602</v>
+        <v>254.8646126176075</v>
       </c>
       <c r="L45" t="n">
-        <v>864.5351077304085</v>
+        <v>755.3167907479823</v>
       </c>
       <c r="M45" t="n">
-        <v>1500.518416444581</v>
+        <v>1391.300099462155</v>
       </c>
       <c r="N45" t="n">
-        <v>2169.041324300477</v>
+        <v>1585.274056717933</v>
       </c>
       <c r="O45" t="n">
-        <v>2324.269804102277</v>
+        <v>2130.426232603695</v>
       </c>
       <c r="P45" t="n">
-        <v>2429.521278084463</v>
+        <v>2550.955847539419</v>
       </c>
       <c r="Q45" t="n">
         <v>2657.936419551312</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>419.5025855012044</v>
+        <v>419.5025855012069</v>
       </c>
       <c r="C46" t="n">
-        <v>334.1197110509789</v>
+        <v>334.1197110509815</v>
       </c>
       <c r="D46" t="n">
-        <v>333.8713807044799</v>
+        <v>267.5563801163273</v>
       </c>
       <c r="E46" t="n">
-        <v>333.8713807044799</v>
+        <v>203.1965950116158</v>
       </c>
       <c r="F46" t="n">
-        <v>270.534741684251</v>
+        <v>203.1965950116158</v>
       </c>
       <c r="G46" t="n">
-        <v>185.4658039375078</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="H46" t="n">
-        <v>114.6275384697521</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I46" t="n">
         <v>73.20601563880588</v>
       </c>
       <c r="J46" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K46" t="n">
-        <v>317.6953254278771</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L46" t="n">
-        <v>582.1747424683942</v>
+        <v>582.174742468395</v>
       </c>
       <c r="M46" t="n">
-        <v>866.9687724192438</v>
+        <v>866.9687724192446</v>
       </c>
       <c r="N46" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O46" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P46" t="n">
-        <v>1611.737284042548</v>
+        <v>1611.737284042549</v>
       </c>
       <c r="Q46" t="n">
-        <v>1695.782222838227</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R46" t="n">
-        <v>1648.165075188307</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S46" t="n">
-        <v>1524.009697660467</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T46" t="n">
-        <v>1381.868004238606</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U46" t="n">
-        <v>1176.268296227432</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V46" t="n">
-        <v>1005.137116499227</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W46" t="n">
-        <v>799.2732549399477</v>
+        <v>799.2732549399495</v>
       </c>
       <c r="X46" t="n">
-        <v>654.8370125196118</v>
+        <v>654.8370125196137</v>
       </c>
       <c r="Y46" t="n">
-        <v>517.5977418537626</v>
+        <v>517.597741853765</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7994,7 +7994,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714808</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,19 +8061,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979173</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609919</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.610533322103</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M9" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8547,10 +8547,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>7.951459559858918</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>182.164276778751</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.67607654515042</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>7.95145955985889</v>
+        <v>119.189625743374</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.67607654515039</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,22 +9243,22 @@
         <v>7.951459559858918</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>321.3154539193645</v>
       </c>
       <c r="P18" t="n">
-        <v>44.67607654515032</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K21" t="n">
-        <v>257.563827415544</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>97.05365320867234</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,22 +9714,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>6.735900996518836</v>
+        <v>461.1834582629177</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720755</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>108.3111596922737</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>87.29955833221049</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>248.1791640358272</v>
       </c>
       <c r="M30" t="n">
-        <v>78.57864546978945</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10428,19 +10428,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>248.1791640358271</v>
+        <v>6.735900996518836</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>195.8015873723051</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>162.6991089690031</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>87.29955833221081</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>78.57864546978945</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>216.6966405963617</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>120.0756271819428</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>216.6966405963617</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>87.41610646821671</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>214.7341842558589</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>290.4347245022872</v>
       </c>
       <c r="I11" t="n">
-        <v>94.85220997855055</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>102.5368382882958</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>324.2866984688867</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>344.7768304299427</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>361.283668407527</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>154.8777099334107</v>
       </c>
       <c r="C13" t="n">
-        <v>142.2925508501015</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>123.661202769686</v>
+        <v>123.6612027696858</v>
       </c>
       <c r="E13" t="n">
-        <v>121.4796923980429</v>
+        <v>121.4796923980426</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>120.4667777744047</v>
       </c>
       <c r="G13" t="n">
-        <v>141.9817535136541</v>
+        <v>141.9817535136538</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>127.8933879574562</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77081274701507</v>
+        <v>98.77081274701482</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>104.9044813177993</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>180.6773288969401</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>198.4837816320203</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>193.4892220162619</v>
+        <v>222.9791059442782</v>
       </c>
       <c r="X13" t="n">
-        <v>200.7553851405108</v>
+        <v>200.7553851405106</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>193.6303831035682</v>
       </c>
     </row>
     <row r="14">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>357.7795714149543</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>329.7287713721565</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>356.9760998237354</v>
       </c>
       <c r="F14" t="n">
-        <v>52.53712736464412</v>
+        <v>84.89549599123208</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>94.85220997855053</v>
+        <v>94.85220997855039</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>361.2836684075273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.877709933411</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>142.2925508501015</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>123.661202769686</v>
+        <v>75.84717274261594</v>
       </c>
       <c r="E16" t="n">
-        <v>121.4796923980429</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>120.4667777744049</v>
+        <v>120.4667777744048</v>
       </c>
       <c r="G16" t="n">
-        <v>141.9817535136541</v>
+        <v>141.9817535136539</v>
       </c>
       <c r="H16" t="n">
-        <v>127.8933879574564</v>
+        <v>127.8933879574563</v>
       </c>
       <c r="I16" t="n">
-        <v>61.07795279523381</v>
+        <v>98.77081274701493</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>104.9044813177992</v>
+        <v>104.9044813177991</v>
       </c>
       <c r="S16" t="n">
-        <v>180.6773288969401</v>
+        <v>180.67732889694</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>227.1833730753017</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>261.5687280880646</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>200.7553851405107</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>193.6303831035683</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>4.142481864024568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>84.21824836927573</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>41.00730760263673</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>129.3680378359346</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.89769762530764</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>63.47034021062712</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.70327263002659</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>41.00730760263673</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>25.65745760327326</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24367,10 @@
         <v>84.52904570572312</v>
       </c>
       <c r="D25" t="n">
-        <v>44.8389921302125</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3.831684527575451</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>41.00730760263667</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>84.52904570572322</v>
+        <v>4.142481864023418</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>44.8389921302152</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>41.00730760263667</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>66.66476520590869</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>62.70327263002653</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>6.454214083373819</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>66.66476520590824</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>62.70327263002652</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>70.12988281307804</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>12.09717884943609</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>59.23815502285755</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>70.12988281307804</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>129.3680378359355</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>66.66476520590869</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>62.70327263002653</v>
+        <v>18.23084742022163</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>70.12988281307808</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>41.0073076026367</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,16 +25786,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>63.47034021062793</v>
+        <v>66.66476520591047</v>
       </c>
       <c r="D43" t="n">
-        <v>65.89769762530764</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>62.70327263002659</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.65185058227377</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>63.71618725366456</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>62.70327263002652</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>25.65745760327187</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.00730760263666</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>738348.6026819733</v>
+        <v>738348.6026819736</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>738348.6026819734</v>
+        <v>738348.6026819735</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837818.7864544401</v>
+        <v>837818.78645444</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837818.78645444</v>
+        <v>837818.7864544401</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837818.7864544401</v>
+        <v>837818.7864544402</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>837818.78645444</v>
+        <v>837818.7864544401</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448196</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448199</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.37164482</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.37164482</v>
-      </c>
       <c r="E2" t="n">
-        <v>554835.0826296241</v>
+        <v>554835.0826296237</v>
       </c>
       <c r="F2" t="n">
-        <v>554835.0826296239</v>
+        <v>554835.0826296242</v>
       </c>
       <c r="G2" t="n">
-        <v>633901.1261410718</v>
+        <v>633901.1261410716</v>
       </c>
       <c r="H2" t="n">
-        <v>633901.1261410716</v>
+        <v>633901.1261410714</v>
       </c>
       <c r="I2" t="n">
-        <v>633901.1261410714</v>
+        <v>633901.1261410717</v>
       </c>
       <c r="J2" t="n">
         <v>633901.1261410716</v>
       </c>
       <c r="K2" t="n">
+        <v>633901.1261410716</v>
+      </c>
+      <c r="L2" t="n">
+        <v>633901.1261410718</v>
+      </c>
+      <c r="M2" t="n">
         <v>633901.1261410717</v>
       </c>
-      <c r="L2" t="n">
-        <v>633901.1261410717</v>
-      </c>
-      <c r="M2" t="n">
-        <v>633901.1261410718</v>
-      </c>
       <c r="N2" t="n">
-        <v>633901.1261410717</v>
+        <v>633901.1261410713</v>
       </c>
       <c r="O2" t="n">
-        <v>633901.1261410717</v>
+        <v>633901.1261410716</v>
       </c>
       <c r="P2" t="n">
-        <v>633901.1261410719</v>
+        <v>633901.1261410714</v>
       </c>
     </row>
     <row r="3">
@@ -26363,37 +26363,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154758</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691230.6639893665</v>
+        <v>691230.6639893668</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46210.80411550272</v>
+        <v>46210.80411550257</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>83023.35879792723</v>
+        <v>83023.35879792747</v>
       </c>
       <c r="K3" t="n">
-        <v>1.023181539494544e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46210.80411550274</v>
+        <v>46210.80411550257</v>
       </c>
       <c r="M3" t="n">
         <v>167978.6741701941</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19963.41619882097</v>
+        <v>19963.41619882123</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320962.9529903557</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="C4" t="n">
         <v>320962.9529903556</v>
@@ -26424,19 +26424,19 @@
         <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>66278.56696006694</v>
+        <v>66278.56696006717</v>
       </c>
       <c r="F4" t="n">
-        <v>66278.56696006694</v>
+        <v>66278.56696006707</v>
       </c>
       <c r="G4" t="n">
+        <v>124651.2300728578</v>
+      </c>
+      <c r="H4" t="n">
+        <v>124651.2300728578</v>
+      </c>
+      <c r="I4" t="n">
         <v>124651.2300728579</v>
-      </c>
-      <c r="H4" t="n">
-        <v>124651.2300728579</v>
-      </c>
-      <c r="I4" t="n">
-        <v>124651.2300728578</v>
       </c>
       <c r="J4" t="n">
         <v>124651.2300728578</v>
@@ -26445,19 +26445,19 @@
         <v>124651.2300728578</v>
       </c>
       <c r="L4" t="n">
+        <v>124651.2300728578</v>
+      </c>
+      <c r="M4" t="n">
         <v>124651.2300728579</v>
       </c>
-      <c r="M4" t="n">
-        <v>124651.2300728578</v>
-      </c>
       <c r="N4" t="n">
-        <v>124651.2300728578</v>
+        <v>124651.2300728579</v>
       </c>
       <c r="O4" t="n">
         <v>124651.2300728578</v>
       </c>
       <c r="P4" t="n">
-        <v>124651.2300728578</v>
+        <v>124651.2300728579</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376164</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
         <v>48281.26876376167</v>
@@ -26476,10 +26476,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>70487.90653947929</v>
+        <v>70487.9065394793</v>
       </c>
       <c r="F5" t="n">
-        <v>70487.90653947929</v>
+        <v>70487.9065394793</v>
       </c>
       <c r="G5" t="n">
         <v>75344.02665346203</v>
@@ -26491,7 +26491,7 @@
         <v>75344.02665346203</v>
       </c>
       <c r="J5" t="n">
-        <v>75344.02665346206</v>
+        <v>75344.02665346203</v>
       </c>
       <c r="K5" t="n">
         <v>75344.02665346203</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186293.718359155</v>
+        <v>186293.7183591548</v>
       </c>
       <c r="C6" t="n">
+        <v>267063.1498907024</v>
+      </c>
+      <c r="D6" t="n">
         <v>267063.1498907026</v>
       </c>
-      <c r="D6" t="n">
-        <v>267063.1498907027</v>
-      </c>
       <c r="E6" t="n">
-        <v>-273162.0548592887</v>
+        <v>-273424.8686948225</v>
       </c>
       <c r="F6" t="n">
-        <v>418068.6091300778</v>
+        <v>417805.795294545</v>
       </c>
       <c r="G6" t="n">
-        <v>387695.0652992491</v>
+        <v>387687.3032169789</v>
       </c>
       <c r="H6" t="n">
-        <v>433905.8694147517</v>
+        <v>433898.1073324814</v>
       </c>
       <c r="I6" t="n">
-        <v>433905.8694147516</v>
+        <v>433898.1073324816</v>
       </c>
       <c r="J6" t="n">
-        <v>350882.5106168244</v>
+        <v>350874.748534554</v>
       </c>
       <c r="K6" t="n">
-        <v>433905.8694147517</v>
+        <v>433898.1073324817</v>
       </c>
       <c r="L6" t="n">
-        <v>387695.065299249</v>
+        <v>387687.3032169791</v>
       </c>
       <c r="M6" t="n">
-        <v>265927.1952445579</v>
+        <v>265919.4331622875</v>
       </c>
       <c r="N6" t="n">
-        <v>433905.8694147518</v>
+        <v>433898.1073324812</v>
       </c>
       <c r="O6" t="n">
-        <v>413942.4532159309</v>
+        <v>413934.6911336603</v>
       </c>
       <c r="P6" t="n">
-        <v>433905.8694147521</v>
+        <v>433898.1073324813</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="F2" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="G2" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="H2" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="I2" t="n">
         <v>82.71777539290471</v>
       </c>
       <c r="J2" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K2" t="n">
         <v>82.71777539290471</v>
       </c>
       <c r="L2" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M2" t="n">
         <v>82.71777539290471</v>
       </c>
       <c r="N2" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="O2" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="P2" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>585.0208306634614</v>
+        <v>585.0208306634615</v>
       </c>
       <c r="F3" t="n">
         <v>585.0208306634615</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776586</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -26808,10 +26808,10 @@
         <v>915.0751954850734</v>
       </c>
       <c r="I4" t="n">
-        <v>915.0751954850733</v>
+        <v>915.0751954850734</v>
       </c>
       <c r="J4" t="n">
-        <v>915.0751954850739</v>
+        <v>915.0751954850734</v>
       </c>
       <c r="K4" t="n">
         <v>915.0751954850734</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>57.76350514437841</v>
+        <v>57.76350514437821</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852621</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="K2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437842</v>
+        <v>57.76350514437821</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852621</v>
+        <v>24.95427024852653</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>585.0208306634614</v>
+        <v>585.0208306634615</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776586</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437841</v>
+        <v>57.76350514437821</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852621</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="P2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776586</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>319.1698855250459</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017789</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,31 +27455,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270192</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>94.90242310444953</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27582,7 +27582,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>349.7082848322977</v>
+        <v>179.3549983061513</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,10 +27634,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27673,7 +27673,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>108.226679839754</v>
@@ -27713,7 +27713,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,16 +27746,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>196.292233535713</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>158.425855150396</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27825,10 +27825,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27862,19 +27862,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0123189464189</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27907,16 +27907,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>105.6514367921257</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27950,10 +27950,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27989,13 +27989,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>165.5744871400381</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>109.2483036843516</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28056,7 +28056,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="C11" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="D11" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="E11" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="F11" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="G11" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="H11" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="I11" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.135189281195267</v>
+        <v>2.135189281195238</v>
       </c>
       <c r="S11" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="T11" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="U11" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="V11" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="W11" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="X11" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="C13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="D13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="E13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="F13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="G13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="H13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="I13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="J13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="K13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="L13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="M13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="N13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="O13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="P13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="R13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="S13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="T13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="U13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="V13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="W13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="X13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852656</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="C14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="D14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="E14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="F14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="G14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="H14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="I14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>2.135189281195238</v>
       </c>
       <c r="S14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="T14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="U14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="V14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="W14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="X14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="C16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="D16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="E16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="F16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="G16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="H16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="I16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="J16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="K16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="L16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="M16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="N16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="O16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="P16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="R16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="S16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="T16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="U16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="V16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="W16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="X16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852644</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="C17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="D17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="E17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="F17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="G17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="H17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="I17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="T17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="U17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="V17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="W17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="X17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="C19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="D19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="E19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="F19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="G19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="H19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="I19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="J19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="K19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="L19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="M19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="N19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="O19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="P19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="R19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="S19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="T19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="U19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="V19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="W19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="X19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="C20" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="D20" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="E20" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="F20" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="G20" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="H20" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="I20" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S20" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="T20" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="U20" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="V20" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="W20" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="X20" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="C22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="D22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="E22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="F22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="G22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="H22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="I22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="J22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="K22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="L22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="M22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="N22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="O22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="P22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="R22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="S22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="T22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="U22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="V22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="W22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="X22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
     </row>
     <row r="23">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C26" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D26" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E26" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F26" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G26" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H26" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I26" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S26" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T26" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U26" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V26" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W26" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X26" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C32" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D32" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E32" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F32" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G32" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H32" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I32" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S32" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T32" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U32" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V32" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W32" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X32" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y32" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="35">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290514</v>
       </c>
       <c r="X38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="K40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="L40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="M40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="N40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="O40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="P40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="R40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="S40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="X40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="C41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="D41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="E41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="F41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="G41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="H41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="I41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="T41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="U41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="V41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="W41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="X41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="C43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="D43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="E43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="F43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="G43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="H43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="I43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="J43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="K43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="L43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="M43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="N43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="O43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="P43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="R43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="S43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="T43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="U43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="V43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="W43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="X43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="C44" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="D44" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="E44" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="F44" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="G44" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="H44" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="I44" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S44" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="T44" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="U44" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="V44" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="W44" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="X44" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="C46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="D46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="E46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="F46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="G46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="H46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="I46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="J46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="K46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="L46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="M46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="N46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="O46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="P46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="R46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="S46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="T46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="U46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="V46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="W46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="X46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.71777539290461</v>
+        <v>82.71777539290473</v>
       </c>
     </row>
   </sheetData>
@@ -31750,13 +31750,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.351842535330496</v>
+        <v>2.351842535330497</v>
       </c>
       <c r="H11" t="n">
-        <v>24.08580736495345</v>
+        <v>24.08580736495346</v>
       </c>
       <c r="I11" t="n">
-        <v>90.66940934332905</v>
+        <v>90.66940934332906</v>
       </c>
       <c r="J11" t="n">
         <v>199.6096953830069</v>
@@ -31765,31 +31765,31 @@
         <v>299.1631899035469</v>
       </c>
       <c r="L11" t="n">
-        <v>371.1383908941676</v>
+        <v>371.1383908941677</v>
       </c>
       <c r="M11" t="n">
-        <v>412.9629705818513</v>
+        <v>412.9629705818514</v>
       </c>
       <c r="N11" t="n">
-        <v>419.6451431853591</v>
+        <v>419.6451431853592</v>
       </c>
       <c r="O11" t="n">
-        <v>396.2590089746665</v>
+        <v>396.2590089746666</v>
       </c>
       <c r="P11" t="n">
-        <v>338.1978963836948</v>
+        <v>338.1978963836949</v>
       </c>
       <c r="Q11" t="n">
-        <v>253.9725355871713</v>
+        <v>253.9725355871714</v>
       </c>
       <c r="R11" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S11" t="n">
-        <v>53.59261177384374</v>
+        <v>53.59261177384375</v>
       </c>
       <c r="T11" t="n">
-        <v>10.29519069840925</v>
+        <v>10.29519069840926</v>
       </c>
       <c r="U11" t="n">
         <v>0.1881474028264397</v>
@@ -31835,7 +31835,7 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I12" t="n">
-        <v>43.32465585573748</v>
+        <v>43.32465585573749</v>
       </c>
       <c r="J12" t="n">
         <v>118.8861671068078</v>
@@ -31844,13 +31844,13 @@
         <v>203.1953954956289</v>
       </c>
       <c r="L12" t="n">
-        <v>273.2212851131572</v>
+        <v>273.2212851131573</v>
       </c>
       <c r="M12" t="n">
-        <v>318.8363527115864</v>
+        <v>318.8363527115865</v>
       </c>
       <c r="N12" t="n">
-        <v>327.2750022406849</v>
+        <v>327.275002240685</v>
       </c>
       <c r="O12" t="n">
         <v>299.3926886886867</v>
@@ -31862,16 +31862,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R12" t="n">
-        <v>78.12787621577324</v>
+        <v>78.12787621577326</v>
       </c>
       <c r="S12" t="n">
         <v>23.37323790433734</v>
       </c>
       <c r="T12" t="n">
-        <v>5.072020220563404</v>
+        <v>5.072020220563405</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08278596660332005</v>
+        <v>0.08278596660332006</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,13 +31911,13 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H13" t="n">
-        <v>9.379514301456814</v>
+        <v>9.379514301456815</v>
       </c>
       <c r="I13" t="n">
         <v>31.7253919317169</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58536065688097</v>
+        <v>74.58536065688098</v>
       </c>
       <c r="K13" t="n">
         <v>122.5666592767055</v>
@@ -31938,16 +31938,16 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.33814543018268</v>
+        <v>88.33814543018269</v>
       </c>
       <c r="R13" t="n">
-        <v>47.43463981084392</v>
+        <v>47.43463981084393</v>
       </c>
       <c r="S13" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T13" t="n">
-        <v>4.507537547734865</v>
+        <v>4.507537547734866</v>
       </c>
       <c r="U13" t="n">
         <v>0.05754303252427496</v>
@@ -34714,7 +34714,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.56571241621127</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>91.08295377589903</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776586</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776586</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M9" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35267,10 +35267,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,16 +35419,16 @@
         <v>632.1302708474111</v>
       </c>
       <c r="N11" t="n">
-        <v>627.5790040007523</v>
+        <v>627.5790040007525</v>
       </c>
       <c r="O11" t="n">
-        <v>546.9609788157251</v>
+        <v>546.9609788157252</v>
       </c>
       <c r="P11" t="n">
-        <v>428.7636087999079</v>
+        <v>428.763608799908</v>
       </c>
       <c r="Q11" t="n">
-        <v>243.9818363726265</v>
+        <v>243.9818363726266</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K12" t="n">
-        <v>65.35395652126988</v>
+        <v>65.35395652126994</v>
       </c>
       <c r="L12" t="n">
         <v>505.5072506367422</v>
       </c>
       <c r="M12" t="n">
-        <v>642.4073825395681</v>
+        <v>176.7023187895682</v>
       </c>
       <c r="N12" t="n">
         <v>675.2756645009051</v>
       </c>
       <c r="O12" t="n">
-        <v>550.6587635209718</v>
+        <v>550.6587635209719</v>
       </c>
       <c r="P12" t="n">
-        <v>106.3146201840262</v>
+        <v>288.4788969627772</v>
       </c>
       <c r="Q12" t="n">
-        <v>65.32115392733063</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.180450788734504</v>
+        <v>6.18045078873476</v>
       </c>
       <c r="K13" t="n">
-        <v>125.2514376993489</v>
+        <v>125.2514376993492</v>
       </c>
       <c r="L13" t="n">
-        <v>209.3874211591744</v>
+        <v>209.3874211591747</v>
       </c>
       <c r="M13" t="n">
-        <v>229.9072321797122</v>
+        <v>229.9072321797125</v>
       </c>
       <c r="N13" t="n">
-        <v>230.5234203746082</v>
+        <v>230.5234203746085</v>
       </c>
       <c r="O13" t="n">
-        <v>198.6525764438037</v>
+        <v>198.652576443804</v>
       </c>
       <c r="P13" t="n">
-        <v>149.8249136305786</v>
+        <v>149.8249136305789</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.1303724270146</v>
+        <v>27.13037242701487</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>111.2381661835151</v>
       </c>
       <c r="K15" t="n">
-        <v>65.35395652126994</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L15" t="n">
         <v>505.5072506367422</v>
       </c>
       <c r="M15" t="n">
-        <v>642.4073825395681</v>
+        <v>176.7023187895682</v>
       </c>
       <c r="N15" t="n">
         <v>675.2756645009051</v>
       </c>
       <c r="O15" t="n">
-        <v>550.6587635209719</v>
+        <v>156.7964442442423</v>
       </c>
       <c r="P15" t="n">
-        <v>106.3146201840263</v>
+        <v>424.7773888239634</v>
       </c>
       <c r="Q15" t="n">
-        <v>65.32115392733063</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.180450788734518</v>
+        <v>6.180450788734646</v>
       </c>
       <c r="K16" t="n">
-        <v>125.251437699349</v>
+        <v>125.2514376993491</v>
       </c>
       <c r="L16" t="n">
-        <v>209.3874211591744</v>
+        <v>209.3874211591746</v>
       </c>
       <c r="M16" t="n">
-        <v>229.9072321797122</v>
+        <v>229.9072321797124</v>
       </c>
       <c r="N16" t="n">
-        <v>230.5234203746082</v>
+        <v>230.5234203746083</v>
       </c>
       <c r="O16" t="n">
-        <v>198.6525764438037</v>
+        <v>198.6525764438039</v>
       </c>
       <c r="P16" t="n">
-        <v>149.8249136305786</v>
+        <v>149.8249136305787</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.13037242701461</v>
+        <v>27.13037242701475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>65.35395652126988</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L18" t="n">
         <v>505.5072506367422</v>
       </c>
       <c r="M18" t="n">
-        <v>642.4073825395681</v>
+        <v>176.7023187895681</v>
       </c>
       <c r="N18" t="n">
         <v>675.2756645009051</v>
       </c>
       <c r="O18" t="n">
-        <v>550.6587635209718</v>
+        <v>478.1118981636068</v>
       </c>
       <c r="P18" t="n">
-        <v>150.9906967291766</v>
+        <v>424.7773888239634</v>
       </c>
       <c r="Q18" t="n">
         <v>20.6450773821802</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.9439559331129</v>
+        <v>63.94395593311285</v>
       </c>
       <c r="K19" t="n">
         <v>183.0149428437273</v>
@@ -36048,19 +36048,19 @@
         <v>267.1509263035528</v>
       </c>
       <c r="M19" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N19" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O19" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P19" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.89387757139301</v>
+        <v>84.89387757139295</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>187.6604060283944</v>
       </c>
       <c r="K20" t="n">
-        <v>403.2187514297311</v>
+        <v>403.218751429731</v>
       </c>
       <c r="L20" t="n">
         <v>553.0331904746308</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9177839368139</v>
+        <v>65.35395652126988</v>
       </c>
       <c r="L21" t="n">
-        <v>505.5072506367422</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M21" t="n">
-        <v>176.7023187895681</v>
+        <v>642.4073825395681</v>
       </c>
       <c r="N21" t="n">
         <v>675.2756645009051</v>
       </c>
       <c r="O21" t="n">
-        <v>156.7964442442423</v>
+        <v>550.6587635209718</v>
       </c>
       <c r="P21" t="n">
         <v>424.7773888239634</v>
       </c>
       <c r="Q21" t="n">
-        <v>230.7223651180293</v>
+        <v>117.6987305908525</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.9439559331129</v>
+        <v>63.94395593311285</v>
       </c>
       <c r="K22" t="n">
         <v>183.0149428437273</v>
@@ -36285,19 +36285,19 @@
         <v>267.1509263035528</v>
       </c>
       <c r="M22" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N22" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O22" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P22" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.89387757139301</v>
+        <v>84.89387757139295</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>329.8191935338485</v>
+        <v>65.35395652126988</v>
       </c>
       <c r="L24" t="n">
         <v>505.5072506367422</v>
       </c>
       <c r="M24" t="n">
-        <v>642.4073825395681</v>
+        <v>176.7023187895681</v>
       </c>
       <c r="N24" t="n">
-        <v>202.6691911538704</v>
+        <v>657.1167484202693</v>
       </c>
       <c r="O24" t="n">
-        <v>156.7964442442423</v>
+        <v>550.6587635209718</v>
       </c>
       <c r="P24" t="n">
         <v>424.7773888239634</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>187.6604060283961</v>
+        <v>187.6604060283944</v>
       </c>
       <c r="K26" t="n">
         <v>403.2187514297311</v>
@@ -36674,10 +36674,10 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K27" t="n">
-        <v>329.8191935338485</v>
+        <v>65.35395652126988</v>
       </c>
       <c r="L27" t="n">
-        <v>242.9780650255567</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M27" t="n">
         <v>642.4073825395681</v>
@@ -36686,13 +36686,13 @@
         <v>675.2756645009051</v>
       </c>
       <c r="O27" t="n">
-        <v>156.7964442442423</v>
+        <v>550.6587635209718</v>
       </c>
       <c r="P27" t="n">
-        <v>424.7773888239634</v>
+        <v>193.6141785162367</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.6450773821802</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9439559331128</v>
+        <v>63.9439559331129</v>
       </c>
       <c r="K28" t="n">
-        <v>183.0149428437272</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L28" t="n">
-        <v>267.1509263035527</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M28" t="n">
-        <v>287.6707373240905</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N28" t="n">
-        <v>288.2869255189865</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O28" t="n">
-        <v>256.416081588182</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P28" t="n">
-        <v>207.5884187749569</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.89387757139291</v>
+        <v>84.89387757139301</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K30" t="n">
-        <v>329.8191935338485</v>
+        <v>65.35395652126988</v>
       </c>
       <c r="L30" t="n">
-        <v>505.5072506367422</v>
+        <v>382.8460693691102</v>
       </c>
       <c r="M30" t="n">
-        <v>255.2809642593575</v>
+        <v>642.4073825395681</v>
       </c>
       <c r="N30" t="n">
         <v>195.9332901573516</v>
@@ -37148,19 +37148,19 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K33" t="n">
-        <v>65.35395652126988</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L33" t="n">
-        <v>134.666905333283</v>
+        <v>505.5072506367422</v>
       </c>
       <c r="M33" t="n">
         <v>642.4073825395681</v>
       </c>
       <c r="N33" t="n">
-        <v>444.1124541931787</v>
+        <v>202.6691911538704</v>
       </c>
       <c r="O33" t="n">
-        <v>550.6587635209718</v>
+        <v>156.7964442442423</v>
       </c>
       <c r="P33" t="n">
         <v>424.7773888239634</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>63.94395593311292</v>
+        <v>63.9439559331129</v>
       </c>
       <c r="K34" t="n">
         <v>183.0149428437273</v>
@@ -37245,7 +37245,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139301</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K36" t="n">
-        <v>261.155543893575</v>
+        <v>65.35395652126988</v>
       </c>
       <c r="L36" t="n">
-        <v>505.5072506367422</v>
+        <v>297.3660143022861</v>
       </c>
       <c r="M36" t="n">
         <v>642.4073825395681</v>
       </c>
       <c r="N36" t="n">
-        <v>195.9332901573516</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O36" t="n">
-        <v>550.6587635209718</v>
+        <v>156.7964442442423</v>
       </c>
       <c r="P36" t="n">
-        <v>106.3146201840262</v>
+        <v>424.7773888239634</v>
       </c>
       <c r="Q36" t="n">
         <v>230.7223651180293</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283944</v>
       </c>
       <c r="K38" t="n">
-        <v>403.2187514297311</v>
+        <v>403.218751429731</v>
       </c>
       <c r="L38" t="n">
         <v>553.0331904746308</v>
@@ -37622,22 +37622,22 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K39" t="n">
-        <v>329.8191935338485</v>
+        <v>152.6535148534807</v>
       </c>
       <c r="L39" t="n">
-        <v>505.5072506367422</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M39" t="n">
-        <v>255.2809642593575</v>
+        <v>642.4073825395681</v>
       </c>
       <c r="N39" t="n">
-        <v>195.9332901573516</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O39" t="n">
         <v>550.6587635209718</v>
       </c>
       <c r="P39" t="n">
-        <v>424.7773888239634</v>
+        <v>106.3146201840262</v>
       </c>
       <c r="Q39" t="n">
         <v>230.7223651180293</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>63.9439559331129</v>
+        <v>63.94395593311287</v>
       </c>
       <c r="K40" t="n">
         <v>183.0149428437273</v>
@@ -37710,7 +37710,7 @@
         <v>287.6707373240906</v>
       </c>
       <c r="N40" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O40" t="n">
         <v>256.4160815881821</v>
@@ -37719,7 +37719,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.89387757139301</v>
+        <v>84.89387757139298</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>329.8191935338485</v>
+        <v>65.35395652126988</v>
       </c>
       <c r="L42" t="n">
-        <v>351.3635459296447</v>
+        <v>505.5072506367422</v>
       </c>
       <c r="M42" t="n">
         <v>642.4073825395681</v>
@@ -37871,13 +37871,13 @@
         <v>675.2756645009051</v>
       </c>
       <c r="O42" t="n">
-        <v>156.7964442442423</v>
+        <v>276.8720714261851</v>
       </c>
       <c r="P42" t="n">
-        <v>106.3146201840262</v>
+        <v>424.7773888239634</v>
       </c>
       <c r="Q42" t="n">
-        <v>230.7223651180293</v>
+        <v>20.6450773821802</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>63.9439559331129</v>
+        <v>63.94395593311285</v>
       </c>
       <c r="K43" t="n">
         <v>183.0149428437273</v>
@@ -37944,19 +37944,19 @@
         <v>267.1509263035528</v>
       </c>
       <c r="M43" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N43" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O43" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P43" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.89387757139301</v>
+        <v>84.89387757139295</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K45" t="n">
-        <v>329.8191935338485</v>
+        <v>65.35395652126988</v>
       </c>
       <c r="L45" t="n">
-        <v>351.3635459296447</v>
+        <v>505.5072506367422</v>
       </c>
       <c r="M45" t="n">
         <v>642.4073825395681</v>
       </c>
       <c r="N45" t="n">
-        <v>675.2756645009051</v>
+        <v>195.9332901573516</v>
       </c>
       <c r="O45" t="n">
-        <v>156.7964442442423</v>
+        <v>550.6587635209718</v>
       </c>
       <c r="P45" t="n">
-        <v>106.3146201840262</v>
+        <v>424.7773888239634</v>
       </c>
       <c r="Q45" t="n">
-        <v>230.7223651180293</v>
+        <v>108.0611838503969</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>63.9439559331128</v>
+        <v>63.94395593311292</v>
       </c>
       <c r="K46" t="n">
-        <v>183.0149428437272</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L46" t="n">
-        <v>267.1509263035527</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M46" t="n">
-        <v>287.6707373240905</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N46" t="n">
-        <v>288.2869255189865</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O46" t="n">
-        <v>256.416081588182</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P46" t="n">
-        <v>207.5884187749569</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.89387757139291</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
